--- a/tbl打包工具/excel/battleMapConfig.xlsx
+++ b/tbl打包工具/excel/battleMapConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,22 @@
   </si>
   <si>
     <t>reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,24 +489,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="85.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="15.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="85.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -501,16 +517,19 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -520,13 +539,16 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -539,10 +561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,29 +599,37 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>

--- a/tbl打包工具/excel/battleMapConfig.xlsx
+++ b/tbl打包工具/excel/battleMapConfig.xlsx
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗ID字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +114,10 @@
   </si>
   <si>
     <t>战斗目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,9 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -508,19 +506,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -540,10 +538,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -579,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -600,18 +598,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/battleMapConfig.xlsx
+++ b/tbl打包工具/excel/battleMapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19200" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="19200" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,14 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20001;20002;20003;20004;20005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yingzhai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,23 +93,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长社之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛城之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败赵弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20008;0;0;0;20007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广宗之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002;20003;0;0;20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美阳之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败韩遂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20009;20011;0;20010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邺城之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界桥之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝歌之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易京之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20005;0;0;20004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败韩馥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20013;0;0;0;20012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败公孙瓒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20018;0;0;20016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败张燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20020;20021;0;20020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败公孙瓒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20024;0;20017;0;20016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长社之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荥阳之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东郡之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>济北之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>击败张角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_str</t>
+    <t>击败张曼成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20026;0;0;0;20025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败眭固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败眭固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20020;20022;0;20027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛城之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美阳之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败赵弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败韩遂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20009;0;0;0;20010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败区星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20038;0;20039;0;20037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20033;20040;0;20025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广陵之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沛之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳之战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败于毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20046;0;0;0;20020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败袁术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20031;0;0;20014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20047;0;20034;0;20033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20048;20034;0;20033</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,12 +361,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +430,51 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -489,9 +776,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -499,56 +788,556 @@
     <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="85.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="67" style="2" customWidth="1"/>
     <col min="7" max="7" width="54.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="9">
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>102</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>103</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>104</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>201</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>202</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>203</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>204</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>301</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="15">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>302</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="15">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>303</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="15">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>304</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="15">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="18">
+        <v>401</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="18">
+        <v>10</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="18">
+        <v>402</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="18">
+        <v>10</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="18">
+        <v>403</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="18">
+        <v>10</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="18">
+        <v>404</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="18">
+        <v>10</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>501</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>502</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>503</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>504</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -574,10 +1363,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -585,47 +1374,47 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>

--- a/tbl打包工具/excel/battleMapConfig.xlsx
+++ b/tbl打包工具/excel/battleMapConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标识敌方部曲数据，1前锋营\2左护军\3右护军\4后卫营\5中军主帅\6中军武将上\7中军武将下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yingzhai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,18 +117,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20008;0;0;0;20007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广宗之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20002;20003;0;0;20001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美阳之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;20009;20011;0;20010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邺城之战</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,42 +145,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0;20005;0;0;20004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击败韩馥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20013;0;0;0;20012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击败公孙瓒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;20018;0;0;20016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击败张燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;20020;20021;0;20020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击败公孙瓒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20024;0;20017;0;20016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长社之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20026;0;0;0;20025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击败董卓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;20020;20022;0;20027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宛城之战</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -265,22 +221,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20009;0;0;0;20010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击败区星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20038;0;20039;0;20037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;20033;20040;0;20025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击败董卓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,18 +249,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20046;0;0;0;20020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击败袁术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;20031;0;0;20014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击败吕布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,11 +261,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20047;0;20034;0;20033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;20048;20034;0;20033</t>
+    <t>0;20005-1000;0;0;20004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20008-1000;0;0;0;20007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002-1000;20003-1000;0;0;20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20009-1000;20011-1000;0;20010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20013-1000;0;0;0;20012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20018-1000;0;0;20016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20020-1000;20021-1000;0;20020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20024-1000;0;20017-1000;0;20016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20005-1000;0;0;20004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20026-1000;0;0;0;20025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20020-1000;20022-1000;0;20027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20009-1000;0;0;0;20010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20038-1000;0;20039-1000;0;20037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20033-1000;20040-1000;0;20025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20046-1000;0;0;0;20020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20031-1000;0;0;20014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20047-1000;0;20034-1000;0;20033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;20048-1000;20034-1000;0;20033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1前锋营\2左护军\3右护军\4后卫营\5中军主帅\6中军武将上\7中军武将下</t>
+  </si>
+  <si>
+    <t>标识敌方部曲数据-进攻等待时间，0标识没有部曲，-后时间为毫秒，没有则不会主动进攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,25 +802,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -821,22 +828,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="9">
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -844,22 +851,22 @@
         <v>102</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -867,22 +874,22 @@
         <v>103</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -890,22 +897,22 @@
         <v>104</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9">
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -913,22 +920,22 @@
         <v>201</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12">
-        <v>10</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -936,22 +943,22 @@
         <v>202</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12">
-        <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -959,22 +966,22 @@
         <v>203</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="12">
-        <v>10</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -982,22 +989,22 @@
         <v>204</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="12">
-        <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1005,22 +1012,22 @@
         <v>301</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1028,22 +1035,22 @@
         <v>302</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C11" s="15">
         <v>10</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1051,22 +1058,22 @@
         <v>303</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C12" s="15">
         <v>10</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1074,22 +1081,22 @@
         <v>304</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C13" s="15">
         <v>10</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1097,22 +1104,22 @@
         <v>401</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C14" s="18">
         <v>10</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1120,22 +1127,22 @@
         <v>402</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C15" s="18">
         <v>10</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1143,22 +1150,22 @@
         <v>403</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C16" s="18">
         <v>10</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1166,22 +1173,22 @@
         <v>404</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C17" s="18">
         <v>10</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1189,22 +1196,22 @@
         <v>501</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6">
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1212,22 +1219,22 @@
         <v>502</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6">
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1235,16 +1242,16 @@
         <v>503</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6">
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>2</v>
@@ -1258,16 +1265,16 @@
         <v>504</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6">
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>2</v>
@@ -1348,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" activeCellId="1" sqref="B15 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,15 +1368,15 @@
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1385,23 +1392,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1409,15 +1416,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/battleMapConfig.xlsx
+++ b/tbl打包工具/excel/battleMapConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,23 +97,91 @@
     <t>1前锋营\2左护军\3右护军\4后卫营\5中军主帅\6中军武将上\7中军武将下</t>
   </si>
   <si>
-    <t>friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标识敌方部曲数据-进攻等待时间，0标识没有部曲，-后时间为毫秒，没有则不会主动进攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>右军部曲-进攻等待时间，0标识没有部曲，-后时间为毫秒，没有则不会主动进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30001-100;30002-100;30003-100;0;0</t>
+    <t>东郡之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002-100;20003-1000;20004-1000;0;20001-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23002-100;23003-1000;23004-1000;23005;23001-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿张之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败于毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20006-100;20007-1000;20008-1000;20004;20005-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010-100;20007-1000;20008-1000;20004;20009-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匡亭之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败于毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101;10102;10103;10104;10105;10111;10112;10113;10114;10115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101;10102;10103;10104;10105;10111;10112;10113;10114;10115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101;10102;10103;10104;10105;10111;10112;10113;10114;10115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20011-100;20012-1000;25001-1000;25002;25003-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任城之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败袁术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25004-100;25005-1000;25006-1000;25007;25008-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濮阳之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败陶谦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25009-100;25010-1000;25011-1000;25012;25013-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌邑之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,91 +189,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东郡之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败徐荣和董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败波才和于毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20002-100;20003-1000;20004-1000;0;20001-3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23002-100;23003-1000;23004-1000;23005;23001-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寿张之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败于毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20006-100;20007-1000;20008-1000;20004;20005-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20010-100;20007-1000;20008-1000;20004;20009-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匡亭之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败于毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101;10102;10103;10104;10105;10111;10112;10113;10114;10115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101;10102;10103;10104;10105;10111;10112;10113;10114;10115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101;10102;10103;10104;10105;10111;10112;10113;10114;10115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20011-100;20012-1000;25001-1000;25002;25003-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败袁术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25004-100;25005-1000;25006-1000;25007;25008-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>濮阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败陶谦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败吕布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25009-100;25010-1000;25011-1000;25012;25013-5000</t>
+    <t>击败董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败波才</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,10 +568,9 @@
     <col min="3" max="4" width="15.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="67" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="47.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -598,13 +589,10 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -613,154 +601,153 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -772,10 +759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,21 +817,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/battleMapConfig.xlsx
+++ b/tbl打包工具/excel/battleMapConfig.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C15" activeCellId="2" sqref="C10 C15 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,7 +598,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>45</v>
@@ -618,7 +618,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
@@ -638,7 +638,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>44</v>
@@ -658,7 +658,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -678,7 +678,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
@@ -698,7 +698,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
@@ -718,7 +718,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>38</v>
@@ -738,7 +738,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>39</v>
